--- a/Commishes/Output/Hudson_October_2022.xlsx
+++ b/Commishes/Output/Hudson_October_2022.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://databank2-my.sharepoint.com/personal/mcalvert_databank_com/Documents/Desktop/DB_Commissions/Commishes/Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1645A2E2F613C8A6C62B68577E764CEC54944531" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CACF194-A4B5-4B89-9AE7-01EB5920B88D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,11 +134,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +202,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -229,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +288,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +340,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,14 +533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -547,7 +619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -582,7 +654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -617,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -652,7 +724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -687,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -722,7 +794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -757,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -792,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -827,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -862,7 +934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -897,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -905,7 +977,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
